--- a/Research_Dataset.xlsx
+++ b/Research_Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahman\Desktop\Glottometric revizyon\yeni istatistikler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4414A1CF-5031-4CBA-8FA6-D063D1122858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486E9DDE-D6B1-4103-A63E-07841357F9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="71">
   <si>
     <t>Text 1</t>
   </si>
@@ -229,13 +229,22 @@
   </si>
   <si>
     <t>Incoherent</t>
+  </si>
+  <si>
+    <t>Detailed Category</t>
+  </si>
+  <si>
+    <t>Final Category</t>
+  </si>
+  <si>
+    <t>Categorical Ratings of Texts Based on Expert Judgments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +295,21 @@
       <family val="1"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -295,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -318,11 +342,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,6 +378,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW27"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AX33" sqref="AX33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -664,10 +713,12 @@
     <col min="47" max="47" width="13" style="1" customWidth="1"/>
     <col min="48" max="48" width="11.85546875" style="1" customWidth="1"/>
     <col min="49" max="49" width="20.42578125" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="9.140625" style="1"/>
+    <col min="50" max="50" width="19.5703125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="26" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -735,8 +786,12 @@
       </c>
       <c r="AV1" s="6"/>
       <c r="AW1" s="6"/>
+      <c r="AX1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY1" s="6"/>
     </row>
-    <row r="2" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5" t="s">
         <v>29</v>
@@ -879,11 +934,17 @@
       <c r="AV2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AW2" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="AX2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1028,11 +1089,17 @@
       <c r="AV3" s="4">
         <v>2.8166666666666669</v>
       </c>
-      <c r="AW3" s="4">
+      <c r="AW3" s="8">
         <v>2.5</v>
       </c>
+      <c r="AX3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1177,11 +1244,17 @@
       <c r="AV4" s="4">
         <v>8.6833333333333336</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AW4" s="8">
         <v>8.8000000000000007</v>
       </c>
+      <c r="AX4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1326,11 +1399,17 @@
       <c r="AV5" s="4">
         <v>6.5666666666666664</v>
       </c>
-      <c r="AW5" s="4">
+      <c r="AW5" s="8">
         <v>6.9666666666666668</v>
       </c>
+      <c r="AX5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1475,11 +1554,17 @@
       <c r="AV6" s="4">
         <v>4.2833333333333332</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AW6" s="8">
         <v>3.9666666666666668</v>
       </c>
+      <c r="AX6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY6" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,11 +1709,17 @@
       <c r="AV7" s="4">
         <v>8.5423728813559325</v>
       </c>
-      <c r="AW7" s="4">
+      <c r="AW7" s="8">
         <v>8.6833333333333336</v>
       </c>
+      <c r="AX7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY7" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1773,11 +1864,17 @@
       <c r="AV8" s="4">
         <v>8.1666666666666661</v>
       </c>
-      <c r="AW8" s="4">
+      <c r="AW8" s="8">
         <v>8.1166666666666671</v>
       </c>
+      <c r="AX8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY8" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1922,11 +2019,17 @@
       <c r="AV9" s="4">
         <v>4.5166666666666666</v>
       </c>
-      <c r="AW9" s="4">
+      <c r="AW9" s="8">
         <v>3.15</v>
       </c>
+      <c r="AX9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY9" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2071,11 +2174,17 @@
       <c r="AV10" s="4">
         <v>9.1</v>
       </c>
-      <c r="AW10" s="4">
+      <c r="AW10" s="8">
         <v>9.2666666666666675</v>
       </c>
+      <c r="AX10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY10" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2220,11 +2329,17 @@
       <c r="AV11" s="4">
         <v>5.916666666666667</v>
       </c>
-      <c r="AW11" s="4">
+      <c r="AW11" s="8">
         <v>5.8166666666666664</v>
       </c>
+      <c r="AX11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY11" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2369,11 +2484,17 @@
       <c r="AV12" s="4">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AW12" s="4">
+      <c r="AW12" s="8">
         <v>9.1166666666666671</v>
       </c>
+      <c r="AX12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY12" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -2518,11 +2639,17 @@
       <c r="AV13" s="4">
         <v>5.583333333333333</v>
       </c>
-      <c r="AW13" s="4">
+      <c r="AW13" s="8">
         <v>5.666666666666667</v>
       </c>
+      <c r="AX13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY13" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="14" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2667,11 +2794,17 @@
       <c r="AV14" s="4">
         <v>8.4666666666666668</v>
       </c>
-      <c r="AW14" s="4">
+      <c r="AW14" s="8">
         <v>8.8333333333333339</v>
       </c>
+      <c r="AX14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY14" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="15" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2816,11 +2949,17 @@
       <c r="AV15" s="4">
         <v>8.7666666666666675</v>
       </c>
-      <c r="AW15" s="4">
+      <c r="AW15" s="8">
         <v>8.9</v>
       </c>
+      <c r="AX15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY15" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="16" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2965,11 +3104,17 @@
       <c r="AV16" s="4">
         <v>8.0500000000000007</v>
       </c>
-      <c r="AW16" s="4">
+      <c r="AW16" s="8">
         <v>8.5166666666666675</v>
       </c>
+      <c r="AX16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY16" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -3114,11 +3259,17 @@
       <c r="AV17" s="4">
         <v>4.9666666666666668</v>
       </c>
-      <c r="AW17" s="4">
+      <c r="AW17" s="8">
         <v>3.9166666666666665</v>
       </c>
+      <c r="AX17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY17" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -3263,11 +3414,17 @@
       <c r="AV18" s="4">
         <v>2.0166666666666666</v>
       </c>
-      <c r="AW18" s="4">
+      <c r="AW18" s="8">
         <v>1.8166666666666667</v>
       </c>
+      <c r="AX18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY18" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="19" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -3412,11 +3569,17 @@
       <c r="AV19" s="4">
         <v>4.5</v>
       </c>
-      <c r="AW19" s="4">
+      <c r="AW19" s="8">
         <v>3.65</v>
       </c>
+      <c r="AX19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY19" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -3561,11 +3724,17 @@
       <c r="AV20" s="4">
         <v>8.7333333333333325</v>
       </c>
-      <c r="AW20" s="4">
+      <c r="AW20" s="8">
         <v>8.4166666666666661</v>
       </c>
+      <c r="AX20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY20" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -3710,11 +3879,17 @@
       <c r="AV21" s="4">
         <v>6.6833333333333336</v>
       </c>
-      <c r="AW21" s="4">
+      <c r="AW21" s="8">
         <v>6.5</v>
       </c>
+      <c r="AX21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY21" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -3859,11 +4034,17 @@
       <c r="AV22" s="4">
         <v>6.3833333333333337</v>
       </c>
-      <c r="AW22" s="4">
+      <c r="AW22" s="8">
         <v>6.8833333333333337</v>
       </c>
+      <c r="AX22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY22" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -4008,11 +4189,17 @@
       <c r="AV23" s="4">
         <v>6.75</v>
       </c>
-      <c r="AW23" s="4">
+      <c r="AW23" s="8">
         <v>7</v>
       </c>
+      <c r="AX23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY23" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="24" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -4157,11 +4344,17 @@
       <c r="AV24" s="4">
         <v>5.7166666666666668</v>
       </c>
-      <c r="AW24" s="4">
+      <c r="AW24" s="8">
         <v>7.05</v>
       </c>
+      <c r="AX24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY24" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="25" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -4306,11 +4499,17 @@
       <c r="AV25" s="4">
         <v>5.333333333333333</v>
       </c>
-      <c r="AW25" s="4">
+      <c r="AW25" s="8">
         <v>4.8666666666666663</v>
       </c>
+      <c r="AX25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY25" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="26" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -4455,11 +4654,17 @@
       <c r="AV26" s="4">
         <v>8.0333333333333332</v>
       </c>
-      <c r="AW26" s="4">
+      <c r="AW26" s="8">
         <v>8.0500000000000007</v>
       </c>
+      <c r="AX26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY26" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" ht="12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" ht="12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -4604,21 +4809,28 @@
       <c r="AV27" s="4">
         <v>6.7</v>
       </c>
-      <c r="AW27" s="4">
+      <c r="AW27" s="8">
         <v>6.45</v>
+      </c>
+      <c r="AX27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY27" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="R1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="R1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
